--- a/Gene_lists/MGI_MPs/MGI_lethal_phenotypes.xlsx
+++ b/Gene_lists/MGI_MPs/MGI_lethal_phenotypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubydawes/Documents/GitHub/Honours_Project/Project/Gene_lists/MGI_MPs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubydawes/Documents/GitHub/Constraint_Project/Gene_lists/MGI_MPs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399E7583-F0CE-0B4B-A0EE-328275F6F33E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E013E6B-E545-D844-8F0C-343C126DEF5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="14440" xr2:uid="{749102C7-540C-8146-86FC-2A0BC6735CD9}"/>
+    <workbookView xWindow="1580" yWindow="1720" windowWidth="26840" windowHeight="14440" xr2:uid="{749102C7-540C-8146-86FC-2A0BC6735CD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,12 +499,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -519,8 +525,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,7 +845,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,14 +975,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1089,14 +1096,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1254,91 +1261,91 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1353,14 +1360,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>140</v>
       </c>
     </row>
